--- a/data/trans_orig/P62AS1_2015-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P62AS1_2015-Edad-trans_orig.xlsx
@@ -1050,12 +1050,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>28,34%</t>
+          <t>28,66%</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>79,76%</t>
+          <t>79,62%</t>
         </is>
       </c>
       <c r="H9" s="2" t="n">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>58,04%</t>
+          <t>53,57%</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
@@ -1092,12 +1092,12 @@
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>48,43%</t>
+          <t>48,46%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>85,16%</t>
+          <t>82,36%</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>13,37%</t>
+          <t>13,48%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>62,11%</t>
+          <t>60,07%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
@@ -1147,7 +1147,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>41,96%</t>
+          <t>46,43%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1163,12 +1163,12 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>10,74%</t>
+          <t>10,95%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>43,13%</t>
+          <t>43,94%</t>
         </is>
       </c>
     </row>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>37,04%</t>
+          <t>39,21%</t>
         </is>
       </c>
       <c r="H12" s="2" t="n">
@@ -1310,7 +1310,7 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>22,82%</t>
+          <t>25,42%</t>
         </is>
       </c>
     </row>
@@ -1409,12 +1409,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>22,06%</t>
+          <t>24,34%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>60,13%</t>
+          <t>61,01%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
@@ -1430,12 +1430,12 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>35,62%</t>
+          <t>37,33%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>74,16%</t>
+          <t>73,6%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1451,12 +1451,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>35,32%</t>
+          <t>36,39%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>61,92%</t>
+          <t>61,84%</t>
         </is>
       </c>
     </row>
@@ -1480,12 +1480,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>34,38%</t>
+          <t>32,83%</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>70,66%</t>
+          <t>70,1%</t>
         </is>
       </c>
       <c r="H15" s="2" t="n">
@@ -1501,12 +1501,12 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>10,34%</t>
+          <t>11,59%</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>45,05%</t>
+          <t>44,54%</t>
         </is>
       </c>
       <c r="M15" s="2" t="n">
@@ -1522,12 +1522,12 @@
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>26,36%</t>
+          <t>24,68%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>53,01%</t>
+          <t>52,09%</t>
         </is>
       </c>
     </row>
@@ -1556,7 +1556,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>15,97%</t>
+          <t>13,41%</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
@@ -1572,12 +1572,12 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>29,07%</t>
+          <t>28,85%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
@@ -1593,12 +1593,12 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>3,15%</t>
+          <t>3,08%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>17,27%</t>
+          <t>16,18%</t>
         </is>
       </c>
     </row>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>19,02%</t>
+          <t>16,26%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
@@ -1648,7 +1648,7 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>18,74%</t>
+          <t>19,92%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
@@ -1664,12 +1664,12 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>12,27%</t>
+          <t>11,93%</t>
         </is>
       </c>
     </row>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>35,51%</t>
+          <t>35,06%</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
@@ -1789,12 +1789,12 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>8,79%</t>
+          <t>8,93%</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>32,64%</t>
+          <t>32,75%</t>
         </is>
       </c>
       <c r="M19" s="2" t="n">
@@ -1810,12 +1810,12 @@
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>14,43%</t>
+          <t>14,81%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>29,79%</t>
+          <t>29,85%</t>
         </is>
       </c>
     </row>
@@ -1839,12 +1839,12 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>32,89%</t>
+          <t>31,63%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>54,93%</t>
+          <t>54,63%</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
@@ -1860,12 +1860,12 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>19,7%</t>
+          <t>21,21%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>48,23%</t>
+          <t>47,98%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
@@ -1881,12 +1881,12 @@
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>30,51%</t>
+          <t>31,17%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>48,96%</t>
+          <t>49,35%</t>
         </is>
       </c>
     </row>
@@ -1931,12 +1931,12 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>12,97%</t>
+          <t>13,32%</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>37,58%</t>
+          <t>37,17%</t>
         </is>
       </c>
       <c r="M21" s="2" t="n">
@@ -1952,12 +1952,12 @@
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>4,9%</t>
+          <t>4,94%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>15,4%</t>
+          <t>15,64%</t>
         </is>
       </c>
     </row>
@@ -1981,12 +1981,12 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>22,82%</t>
+          <t>23,83%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>45,74%</t>
+          <t>46,89%</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
@@ -2002,12 +2002,12 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>12,64%</t>
+          <t>12,89%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>37,18%</t>
+          <t>38,02%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
@@ -2023,12 +2023,12 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>21,08%</t>
+          <t>22,37%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>39,25%</t>
+          <t>39,71%</t>
         </is>
       </c>
     </row>
@@ -2127,12 +2127,12 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>4,34%</t>
+          <t>4,53%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>11,96%</t>
+          <t>12,1%</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
@@ -2148,12 +2148,12 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>4,65%</t>
+          <t>4,99%</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>16,72%</t>
+          <t>17,53%</t>
         </is>
       </c>
       <c r="M24" s="2" t="n">
@@ -2169,12 +2169,12 @@
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>5,48%</t>
+          <t>5,44%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>12,08%</t>
+          <t>12,37%</t>
         </is>
       </c>
     </row>
@@ -2198,12 +2198,12 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>10,62%</t>
+          <t>10,59%</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>21,18%</t>
+          <t>21,46%</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
@@ -2219,12 +2219,12 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>10,93%</t>
+          <t>10,83%</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>25,74%</t>
+          <t>25,51%</t>
         </is>
       </c>
       <c r="M25" s="2" t="n">
@@ -2240,12 +2240,12 @@
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>11,94%</t>
+          <t>12,47%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>21,07%</t>
+          <t>21,54%</t>
         </is>
       </c>
     </row>
@@ -2290,12 +2290,12 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>21,95%</t>
+          <t>22,45%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>39,78%</t>
+          <t>39,99%</t>
         </is>
       </c>
       <c r="M26" s="2" t="n">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>7,47%</t>
+          <t>7,28%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>14,61%</t>
+          <t>14,81%</t>
         </is>
       </c>
     </row>
@@ -2340,7 +2340,7 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>70,72%</t>
+          <t>70,36%</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -2361,12 +2361,12 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>33,14%</t>
+          <t>32,48%</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>52,18%</t>
+          <t>53,01%</t>
         </is>
       </c>
       <c r="M27" s="2" t="n">
@@ -2382,12 +2382,12 @@
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>59,08%</t>
+          <t>58,51%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>70,77%</t>
+          <t>69,91%</t>
         </is>
       </c>
     </row>
@@ -2491,7 +2491,7 @@
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>1,05%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="H29" s="2" t="n">
@@ -2507,12 +2507,12 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>7,17%</t>
+          <t>7,27%</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>13,07%</t>
+          <t>12,98%</t>
         </is>
       </c>
       <c r="M29" s="2" t="n">
@@ -2528,12 +2528,12 @@
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>3,55%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>6,33%</t>
+          <t>6,43%</t>
         </is>
       </c>
     </row>
@@ -2562,7 +2562,7 @@
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="H30" s="2" t="n">
@@ -2583,7 +2583,7 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>3,02%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="M30" s="2" t="n">
@@ -2599,12 +2599,12 @@
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>0,48%</t>
+          <t>0,51%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>1,76%</t>
+          <t>1,85%</t>
         </is>
       </c>
     </row>
@@ -2649,12 +2649,12 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>35,4%</t>
+          <t>35,24%</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>44,62%</t>
+          <t>45,07%</t>
         </is>
       </c>
       <c r="M31" s="2" t="n">
@@ -2670,12 +2670,12 @@
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>16,92%</t>
+          <t>16,67%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>22,12%</t>
+          <t>21,86%</t>
         </is>
       </c>
     </row>
@@ -2699,7 +2699,7 @@
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>98,18%</t>
+          <t>98,21%</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
@@ -2725,7 +2725,7 @@
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>53,24%</t>
+          <t>53,3%</t>
         </is>
       </c>
       <c r="M32" s="2" t="n">
@@ -2741,12 +2741,12 @@
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>72,04%</t>
+          <t>72,05%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
         <is>
-          <t>77,56%</t>
+          <t>77,66%</t>
         </is>
       </c>
     </row>
@@ -2845,12 +2845,12 @@
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>5,02%</t>
+          <t>5,14%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>8,45%</t>
+          <t>8,49%</t>
         </is>
       </c>
       <c r="H34" s="2" t="n">
@@ -2866,12 +2866,12 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>12,05%</t>
+          <t>12,33%</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>17,52%</t>
+          <t>17,49%</t>
         </is>
       </c>
       <c r="M34" s="2" t="n">
@@ -2887,12 +2887,12 @@
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>8,79%</t>
+          <t>8,85%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
         <is>
-          <t>11,82%</t>
+          <t>12,11%</t>
         </is>
       </c>
     </row>
@@ -2916,12 +2916,12 @@
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>7,98%</t>
+          <t>7,69%</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>11,89%</t>
+          <t>11,95%</t>
         </is>
       </c>
       <c r="H35" s="2" t="n">
@@ -2937,12 +2937,12 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>5,39%</t>
+          <t>5,26%</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>9,41%</t>
+          <t>9,07%</t>
         </is>
       </c>
       <c r="M35" s="2" t="n">
@@ -2958,12 +2958,12 @@
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>7,15%</t>
+          <t>7,16%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
         <is>
-          <t>9,97%</t>
+          <t>10,07%</t>
         </is>
       </c>
     </row>
@@ -2992,7 +2992,7 @@
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>0,52%</t>
         </is>
       </c>
       <c r="H36" s="2" t="n">
@@ -3008,12 +3008,12 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>31,5%</t>
+          <t>31,52%</t>
         </is>
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>39,05%</t>
+          <t>39,13%</t>
         </is>
       </c>
       <c r="M36" s="2" t="n">
@@ -3034,7 +3034,7 @@
       </c>
       <c r="Q36" s="2" t="inlineStr">
         <is>
-          <t>17,87%</t>
+          <t>18,0%</t>
         </is>
       </c>
     </row>
@@ -3058,12 +3058,12 @@
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>81,03%</t>
+          <t>81,01%</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>86,07%</t>
+          <t>86,17%</t>
         </is>
       </c>
       <c r="H37" s="2" t="n">
@@ -3079,12 +3079,12 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>38,9%</t>
+          <t>39,16%</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>46,73%</t>
+          <t>46,92%</t>
         </is>
       </c>
       <c r="M37" s="2" t="n">
@@ -3100,12 +3100,12 @@
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>62,93%</t>
+          <t>62,77%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
         <is>
-          <t>67,56%</t>
+          <t>67,6%</t>
         </is>
       </c>
     </row>
